--- a/storage/app/materials.xlsx
+++ b/storage/app/materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emrea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emrea\Documents\ms-webapp-3\MS-webapp\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A077E4-776D-4E92-A354-6FDD0CEA1261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C5D58-DEC2-492F-B6EA-4BAEEB1B7908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A346118-CCC3-4472-B511-952FC69E894E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="691">
   <si>
     <t>AANVRAAG UITLEVERING FLUVIUS VERBRUIKSMATERIAAL</t>
   </si>
@@ -1290,13 +1290,832 @@
   </si>
   <si>
     <t>KAB 1KV EXVB ECA 4X25</t>
+  </si>
+  <si>
+    <t>KOMBITANG 200MM KNIPEX+C11:C173</t>
+  </si>
+  <si>
+    <t>526.2506160</t>
+  </si>
+  <si>
+    <t>RADIOTANG 160MM KNIPEX</t>
+  </si>
+  <si>
+    <t>TELEFOONTANG 200MM KNIPEX</t>
+  </si>
+  <si>
+    <t>526.7006140</t>
+  </si>
+  <si>
+    <t>ZIJSNIJTANG 140MM KNIPEX</t>
+  </si>
+  <si>
+    <t> 524.1551000</t>
+  </si>
+  <si>
+    <t>VDE-Zijsnijtang POWER met huls-isolatie 200 mm GEDORE No. VDE 8316-200 H</t>
+  </si>
+  <si>
+    <t>526.9516200</t>
+  </si>
+  <si>
+    <t>KABELSCHAAR 200MM KNIPEX</t>
+  </si>
+  <si>
+    <t>526.9516165</t>
+  </si>
+  <si>
+    <t>KABELSCHAAR</t>
+  </si>
+  <si>
+    <t>526.8806250</t>
+  </si>
+  <si>
+    <t>ALLIGATOR WATERPOMPTANG 250MM KNIPEX - Buis 2"</t>
+  </si>
+  <si>
+    <t>526.9536320</t>
+  </si>
+  <si>
+    <t>Kabelschaar erial KNIPEX 320MM - 60mm - 600mm²</t>
+  </si>
+  <si>
+    <t>526.9536280</t>
+  </si>
+  <si>
+    <t>KABELSCHAAR 280MM KNIPEX - 45mm - 380 mm²</t>
+  </si>
+  <si>
+    <t>526.9536250</t>
+  </si>
+  <si>
+    <t>KABELSCHAAR 250MM KNIPEX - 32 mm - 240mm²</t>
+  </si>
+  <si>
+    <t>526.9020185</t>
+  </si>
+  <si>
+    <t>Pijpsnijder voor koppelings- en beschermingsbuizen 185mm KNIPEX</t>
+  </si>
+  <si>
+    <t>693.23498</t>
+  </si>
+  <si>
+    <t>KUNSTSTOFSCHAAR RC-1625 RIDGID</t>
+  </si>
+  <si>
+    <t>FIGUURBLIKSCHAAR D16 RECHT 4TECX</t>
+  </si>
+  <si>
+    <t>FIGUURBLIKSCHAAR D16 LINKS 4TECX</t>
+  </si>
+  <si>
+    <t> 903.4034000495</t>
+  </si>
+  <si>
+    <t>FIGUURBLIKSCHAAR D16 RECHTS 4TECX</t>
+  </si>
+  <si>
+    <t>526.162016SB</t>
+  </si>
+  <si>
+    <t>ONTMANTELINGSMES KUNSTSTOF 130MM KNIPEX</t>
+  </si>
+  <si>
+    <t>756.27</t>
+  </si>
+  <si>
+    <t>JOKARIMES NR 27 SECURA</t>
+  </si>
+  <si>
+    <t>756.28</t>
+  </si>
+  <si>
+    <t>JOKARIMES NR 28 H SECURA</t>
+  </si>
+  <si>
+    <t>526.9852SB</t>
+  </si>
+  <si>
+    <t>KABELMES 190MM KNIPEX</t>
+  </si>
+  <si>
+    <t>896.AT5.5X150VE</t>
+  </si>
+  <si>
+    <t>SCHROEVENDRAAIER PROTWIST SLEUF AT5.5X150VE FACOM</t>
+  </si>
+  <si>
+    <t>896.AT3.5X100VE</t>
+  </si>
+  <si>
+    <t>SCHROEVENDRAAIER PROTWIST SLEUF 1000V AT3,5X100VE FACOM</t>
+  </si>
+  <si>
+    <t>512.324.1.80</t>
+  </si>
+  <si>
+    <t>KRUISSCHROEVENDRAAIER PZ 1X80MM WIHA</t>
+  </si>
+  <si>
+    <t>896.ATD2X125VE</t>
+  </si>
+  <si>
+    <t>SCHROEVENDRAAIER PROTWIST PZ2 1000V ATD2X125VE FACOM</t>
+  </si>
+  <si>
+    <t>512.324.3.150</t>
+  </si>
+  <si>
+    <t>KRUISSCHROEVENDRAAIER PZ 3X150MM 1000V WIHA</t>
+  </si>
+  <si>
+    <t>524.2928701</t>
+  </si>
+  <si>
+    <t>VDE-SCHROEVENDRAAIERSET SLIM DRIVE 6-DELIG GEDORE</t>
+  </si>
+  <si>
+    <t>896.APVE.J6PB</t>
+  </si>
+  <si>
+    <t>GEISOLEERDE SCHROEVENDRAAIERSET 6-DELIG ATPVEJ6PB FACOM</t>
+  </si>
+  <si>
+    <t>903.4016000032</t>
+  </si>
+  <si>
+    <t>SCHROEVENDRAAIERSET 4ST. GLEUF 2ST. PH 4TECX</t>
+  </si>
+  <si>
+    <t> 526.980307</t>
+  </si>
+  <si>
+    <t>DOPSLEUTEL 7MM , MET SCHROEVENDRAAIER GREEP KNIPEX</t>
+  </si>
+  <si>
+    <t>DOPSLEUTEL 8MM MET SCHROEVENDRAAIER GREEP</t>
+  </si>
+  <si>
+    <t>DOPSLEUTEL 10MM MET SCHROEVENDRAAIER GREEP</t>
+  </si>
+  <si>
+    <t>DOPSLEUTEL 13MM MET SCHROEVENDRAAIER GREEP</t>
+  </si>
+  <si>
+    <t>526.981505</t>
+  </si>
+  <si>
+    <t>SCHROEVENDRAAIER MET T-GREEP SW5x200 KNIPEX</t>
+  </si>
+  <si>
+    <t>SCHROEVENDRAAIER MET T-GREEP 6MM KNIPEX</t>
+  </si>
+  <si>
+    <t> 896.83S.JP9AL</t>
+  </si>
+  <si>
+    <t>SET VAN 9 INBUSSLEUTELS IN HOUDER 83S.JP9AL FACOM</t>
+  </si>
+  <si>
+    <t>903.4019000156</t>
+  </si>
+  <si>
+    <t>METALEN AFBREEKMES 18MM AUTO LOCK 4TECX</t>
+  </si>
+  <si>
+    <t>519.2.11.718</t>
+  </si>
+  <si>
+    <t>FatMax Reserve Afbreekmes 18mm (10 stuks) STANLEY</t>
+  </si>
+  <si>
+    <t>524.6415610</t>
+  </si>
+  <si>
+    <t>Waterpomptang 10", 7-voudig verstelbaar GEDORE No. 145 10 JC</t>
+  </si>
+  <si>
+    <t>563.31996</t>
+  </si>
+  <si>
+    <t>COLSON TANG</t>
+  </si>
+  <si>
+    <t>519.1.30.687</t>
+  </si>
+  <si>
+    <t>ROLBANDMAAT 3M TYLON 12,7MM STANLEY</t>
+  </si>
+  <si>
+    <t>4000853076</t>
+  </si>
+  <si>
+    <t>VOUWMETER BEUKENHOUT 2M PROMAT</t>
+  </si>
+  <si>
+    <t>896.212A.35</t>
+  </si>
+  <si>
+    <t>TERUGSTOOTLOZE HAMER VERWISSELBARE HAMERDOP 35MM FACOM</t>
+  </si>
+  <si>
+    <t>523.30312-600</t>
+  </si>
+  <si>
+    <t>BANKHAMER 600GR DIN1041 PICARD</t>
+  </si>
+  <si>
+    <t>896.205C.30</t>
+  </si>
+  <si>
+    <t>MONTEURSHAMER GRAFIETSTEEL 380G 205C.30 FACOM</t>
+  </si>
+  <si>
+    <t>KLAUWHAMER ONE PIECE 45OGR. 4TECX</t>
+  </si>
+  <si>
+    <t>896.BS.T20PB</t>
+  </si>
+  <si>
+    <t>STOFFEN GEREEDSCHAPSTAS PROBAG 20" BS.T20 FACOM</t>
+  </si>
+  <si>
+    <t>519.1.92.066</t>
+  </si>
+  <si>
+    <t>GEREEDSCHAPSKIST 19"STANLEY</t>
+  </si>
+  <si>
+    <t>519.1.94.749</t>
+  </si>
+  <si>
+    <t>TOOLBOX HEAVY DUTY 23" STANLEY</t>
+  </si>
+  <si>
+    <t>522.3100TB</t>
+  </si>
+  <si>
+    <t>OPEN GEREEDSCHAPSTAS 3100 TB BAHCO - Afmetingen BxHxL = 400x400x600</t>
+  </si>
+  <si>
+    <t>903.4078000116</t>
+  </si>
+  <si>
+    <t>HANDZAAG 550MM HP-U7 4TECX</t>
+  </si>
+  <si>
+    <t>522.PC.12.VEN</t>
+  </si>
+  <si>
+    <t>SLEUFZAAG PROCUT BAHCO</t>
+  </si>
+  <si>
+    <t>519.1.15.122</t>
+  </si>
+  <si>
+    <t>METAALZAAG STANLEY</t>
+  </si>
+  <si>
+    <t>METAALZAAGBEUGEL BAHCO</t>
+  </si>
+  <si>
+    <t>METAAL - STEEKZAAG BAHCO</t>
+  </si>
+  <si>
+    <t>SANDFLEX ZAAGBLAD 3906-300-32 BAHCO</t>
+  </si>
+  <si>
+    <t>Milwaukee Sawzall Blade Set - reciprozaagbladen 12delig</t>
+  </si>
+  <si>
+    <t>WATERPASSER TYPE 81S/ 25CM STABILA</t>
+  </si>
+  <si>
+    <t>WATERPASSER TYPE 81S 50 CM STABILA</t>
+  </si>
+  <si>
+    <t>RECIPROZAAGBLADEN 5ST H+M PROF 150X1.6MM METABO</t>
+  </si>
+  <si>
+    <t>BITSET 56-DLG MET KLEURRING EN SNELWISSELH 4TECX</t>
+  </si>
+  <si>
+    <t>LANGE BITSHOUDER 899/4/1 SB 152mm WERA</t>
+  </si>
+  <si>
+    <t>LANGE BITS 851/4 Z SB PH2 X 89mm</t>
+  </si>
+  <si>
+    <t>BIT 855/4 PZ 2 X 152MM WERA</t>
+  </si>
+  <si>
+    <t>DOPPENSET 20 DELIG PROXXON</t>
+  </si>
+  <si>
+    <t>Ratel standaard 1/2" PROXXON</t>
+  </si>
+  <si>
+    <t>STANDAARDRATEL MET SNELONTKOPPELING 1/4" PROXXON</t>
+  </si>
+  <si>
+    <t>Verlengstuk 1/2" 180 mm GEDORE No. 1990-7</t>
+  </si>
+  <si>
+    <t>Verlengstuk 1/4" 148 mm GEDORE No. 2090-6</t>
+  </si>
+  <si>
+    <t>Dopsleutel 1/2" 6-kant 13 mm GEDORE No. 19 13</t>
+  </si>
+  <si>
+    <t>Dopsleutel 1/2" 6-kant 17 mm GEDORE No. 19 17</t>
+  </si>
+  <si>
+    <t> 524.6131340</t>
+  </si>
+  <si>
+    <t>Dopsleutel 1/2" 6-kant 19 mm GEDORE No. 19 19</t>
+  </si>
+  <si>
+    <t>Dopsleutel 1/2" lang 6-kant 13 mm GEDORE No. 19 L 13</t>
+  </si>
+  <si>
+    <t>Dopsleutel 1/2" lang 6-kant 17 mm GEDORE No. 19 L 17</t>
+  </si>
+  <si>
+    <t>Dopsleutel 1/2" lang 6-kant 19 mm GEDORE No. 19 L 19</t>
+  </si>
+  <si>
+    <t>Dopsleutel-schroevendraaier 1/4" 5 mm GEDORE No. IN 20 5</t>
+  </si>
+  <si>
+    <t>Dopsleutel-schroevendraaier 1/4" 6 mm GEDORE No. IN 20 6</t>
+  </si>
+  <si>
+    <t>Dopsleutel-schroevendraaier 1/2" 5 mm GEDORE No. IN 19 5</t>
+  </si>
+  <si>
+    <t>Dopsleutel-schroevendraaier 1/2" 6 mm GEDORE No. IN 19 6</t>
+  </si>
+  <si>
+    <t>Dopsleutel-schroevendraaier 1/2", lang 6 mm GEDORE No. IN 19 L 6-90</t>
+  </si>
+  <si>
+    <t>083.DO2012-0-013DH</t>
+  </si>
+  <si>
+    <t>SLAGDOP 1/2" x 13</t>
+  </si>
+  <si>
+    <t>083.DO2012-0-017DH</t>
+  </si>
+  <si>
+    <t>SLAGDOP 1/2" x 17</t>
+  </si>
+  <si>
+    <t>083.DO2012-0-019DH</t>
+  </si>
+  <si>
+    <t>SLAGDOP 1/2" x 19</t>
+  </si>
+  <si>
+    <t>083.DO2012-1-013DH</t>
+  </si>
+  <si>
+    <t>SLAGDOP 1/2" x 13 DIEP</t>
+  </si>
+  <si>
+    <t>083.DO2012-1-017DH</t>
+  </si>
+  <si>
+    <t>SLAGDOP 1/2" x 17 DIEP</t>
+  </si>
+  <si>
+    <t>083.DO2012-1-019DH</t>
+  </si>
+  <si>
+    <t>SLAGDOP 1/2" x 19 DIEP</t>
+  </si>
+  <si>
+    <t>083.DO3034-0-017DH</t>
+  </si>
+  <si>
+    <t>SLAGDOP 3/4" x 17</t>
+  </si>
+  <si>
+    <t>083.DO3034-0-019DH</t>
+  </si>
+  <si>
+    <t>SLAGDOP 3/4" x 19</t>
+  </si>
+  <si>
+    <t>083.DO3034-1-017DH</t>
+  </si>
+  <si>
+    <t>SLAGDOP 3/4" x 17 DIEP</t>
+  </si>
+  <si>
+    <t>083.DO3034-1-019DH</t>
+  </si>
+  <si>
+    <t>SLAGDOP 3/4" x 19 DIEP</t>
+  </si>
+  <si>
+    <t>SET RING-STEEKSL. DIN 3113-A 8-DELIG 8-19MM 4TECX</t>
+  </si>
+  <si>
+    <t>STEEK-, RINGSLEUTELS PROXXON</t>
+  </si>
+  <si>
+    <t>561.70015</t>
+  </si>
+  <si>
+    <t>BUIZENSNIJDER MINI MAX 3-28MM ROTHENBERGER</t>
+  </si>
+  <si>
+    <t>561.70027</t>
+  </si>
+  <si>
+    <t>BUIZENSNIJDER 35, 6-35MM DURAMAG ROTHENBERGER</t>
+  </si>
+  <si>
+    <t>561.70340</t>
+  </si>
+  <si>
+    <t>BUIZENSNIJDER, Inox, 6-60 mm ROTHENBERGER</t>
+  </si>
+  <si>
+    <t>787.9918950000</t>
+  </si>
+  <si>
+    <t>SPANNINGSTESTER VOLT CHECK 3 12-690V</t>
+  </si>
+  <si>
+    <t>787.9918880000</t>
+  </si>
+  <si>
+    <t>SPANNINGSTESTER MASTER CHECK 3.2</t>
+  </si>
+  <si>
+    <t>935.044691</t>
+  </si>
+  <si>
+    <t>DIGITALE MULTIMETER MM2-1 TRMS BENNING</t>
+  </si>
+  <si>
+    <t>935.044066</t>
+  </si>
+  <si>
+    <t>DIGITALE STROOMTANG CM5-1 BENNING- 600A</t>
+  </si>
+  <si>
+    <t>935.044062</t>
+  </si>
+  <si>
+    <t>DIGITALE STROOMTANG CM1-2 BENNING - 400A</t>
+  </si>
+  <si>
+    <t>693.37428</t>
+  </si>
+  <si>
+    <t>AMPERETANG CM100 RIDGID - 1000A</t>
+  </si>
+  <si>
+    <t> 611.EPCE20</t>
+  </si>
+  <si>
+    <t>RUIMTEZICHTBRIL CHEM SPLASH EPCE20 EDG</t>
+  </si>
+  <si>
+    <t>STOFMASKER PREM. 4211 FFP2V M/L (10st) met ventiel Honeywell</t>
+  </si>
+  <si>
+    <t>Comfort 5000 masker 5311 FFP3V (10st) met ventiel Honeywell</t>
+  </si>
+  <si>
+    <t>KNIEBESCHERMERS GEL SOFT GELMASTER JUNIOR N°67</t>
+  </si>
+  <si>
+    <t>519.1.55.515</t>
+  </si>
+  <si>
+    <t>SLOOPBEITEL 340MM STANLEY</t>
+  </si>
+  <si>
+    <t>BREEKIJZER LENGTE 500MM 4TECX</t>
+  </si>
+  <si>
+    <t>KASSEIHEFBOOM 1.20 M X 28 MM VKT POLET</t>
+  </si>
+  <si>
+    <t>734.CP211010-360</t>
+  </si>
+  <si>
+    <t>Plakspaan in STAAL met houten handgreep, extra lange hechting 350x100x0,7 SCHWAN</t>
+  </si>
+  <si>
+    <t>VLOERTRUWEEL ROND VOOR BELG. MOD. 500MM</t>
+  </si>
+  <si>
+    <t>TRUWEEL M S-HALS BELGISCH MODEL 170MM</t>
+  </si>
+  <si>
+    <t>PLAASTERTRUWEEL BELGISCH MOD. ROND 180MM</t>
+  </si>
+  <si>
+    <t>624.NT1.5.FL.70</t>
+  </si>
+  <si>
+    <t>METSERSKOORD NYLON 1.5MM-70M FLUO</t>
+  </si>
+  <si>
+    <t>007.EMMER.12L</t>
+  </si>
+  <si>
+    <t>EMMER 12L MET HAAKBEUGEL EN LITERSCALA ZWART DE KINDER</t>
+  </si>
+  <si>
+    <t>EMMER BASIC 12 LITER</t>
+  </si>
+  <si>
+    <t>RONDNEUSKRUIWAGEN 90L -1.3MM GELAKT</t>
+  </si>
+  <si>
+    <t>KRUIWAGENWIEL 4.00-8 METAALVELG KOGELLAGER 4 PLY + AS</t>
+  </si>
+  <si>
+    <t>503.027200</t>
+  </si>
+  <si>
+    <t>VIERKANTE GRONDDAMMER 11 KG POLET</t>
+  </si>
+  <si>
+    <t>KASSEIHAMER 1.5 KG POLET</t>
+  </si>
+  <si>
+    <t>DALHAMER 3,5KG HOUT POLET</t>
+  </si>
+  <si>
+    <t>DALHAMER 3.25 KG KUNSTSTOF BLOK POLET</t>
+  </si>
+  <si>
+    <t>MOKER 5KG FIBERSTEEL</t>
+  </si>
+  <si>
+    <t>503.PT110206</t>
+  </si>
+  <si>
+    <t>TRADITIONAL ZANDSCHOP NR00</t>
+  </si>
+  <si>
+    <t>ZANDSCHOP NR 1 POLET</t>
+  </si>
+  <si>
+    <t>503.PT110314</t>
+  </si>
+  <si>
+    <t>KABELSCHOP 14CM ZONDER STEEL POLET TRADITIONAL</t>
+  </si>
+  <si>
+    <t>503.PT101473</t>
+  </si>
+  <si>
+    <t>TRADITIONAL GRONDW.SPADE 470/130 2V POLET</t>
+  </si>
+  <si>
+    <t>503.030214</t>
+  </si>
+  <si>
+    <t>TUINHARK 14 T 41CM POLET</t>
+  </si>
+  <si>
+    <t>900.7483670</t>
+  </si>
+  <si>
+    <t>RIJFSTEEL 1.70M</t>
+  </si>
+  <si>
+    <t>SCHOPSTEEL ES GEBOGEN 130CM</t>
+  </si>
+  <si>
+    <t>900.210600</t>
+  </si>
+  <si>
+    <t>STEEL VOOR SPADE RECHT 90CM</t>
+  </si>
+  <si>
+    <t>SPADESTEEL T 700/41 GV-A POLET</t>
+  </si>
+  <si>
+    <t>746.152133.0001</t>
+  </si>
+  <si>
+    <t>HANDSTAALBORSTEL 3 RIJEN OSBORN</t>
+  </si>
+  <si>
+    <t> 858.1480</t>
+  </si>
+  <si>
+    <t>HANDVEGER COCO</t>
+  </si>
+  <si>
+    <t>STOFBLIK METAAL HOUTEN STEEL</t>
+  </si>
+  <si>
+    <t>INDUSTRIEVEGER COCO ONGELAKT 32CM</t>
+  </si>
+  <si>
+    <t>INDUSTRIEVEGER COCO 60 CM PLAT</t>
+  </si>
+  <si>
+    <t>STRAATVEGER BASS. + BALLEINEN ROOD 30CM PLAT</t>
+  </si>
+  <si>
+    <t>VLOERWISSER METAAL 45CM ZWARTE MOUSSE</t>
+  </si>
+  <si>
+    <t>BORSTELSTEEL 1.40M</t>
+  </si>
+  <si>
+    <t>624.PE16.110</t>
+  </si>
+  <si>
+    <t>KOORD PE-ORANJE 16MM B.110M</t>
+  </si>
+  <si>
+    <t>624.PE16.220</t>
+  </si>
+  <si>
+    <t>KOORD PE-ORANJE 16MM B.220M</t>
+  </si>
+  <si>
+    <t>582.21133</t>
+  </si>
+  <si>
+    <t>JERRYCAN PE 10L MET FLEXIBELE UITLOOP VOOR BRANDSTOF PRESSOL</t>
+  </si>
+  <si>
+    <t>JERRYCAN BENZINE METAAL 20L GROEN</t>
+  </si>
+  <si>
+    <t>JERRYCAN 20L WIT - VOEDING</t>
+  </si>
+  <si>
+    <t> 582.21169</t>
+  </si>
+  <si>
+    <t>JERRYCAN UIT PE 35L MET KRAAN PRESSOL</t>
+  </si>
+  <si>
+    <t> 582.21167</t>
+  </si>
+  <si>
+    <t>JERRYCAN UIT PE 20L MET KRAAN PRESSOL</t>
+  </si>
+  <si>
+    <t> 582.02674</t>
+  </si>
+  <si>
+    <t>TRECHTER MET FLEXIBELE TUIT DIA 160 MM 1,2L PRESSOL</t>
+  </si>
+  <si>
+    <t>WATERTOEVOERAPPARAAT KUNSTSTOF 10L GLORIA</t>
+  </si>
+  <si>
+    <t>HEVELCILINDERPOMP 12L/MIN PRESSOL</t>
+  </si>
+  <si>
+    <t>524.130150</t>
+  </si>
+  <si>
+    <t>BANKSCHROEF FZA EUROSTAHL ES150</t>
+  </si>
+  <si>
+    <t>510.10002</t>
+  </si>
+  <si>
+    <t>BLAASPISTOOL LANGE BEK + STEKKER 1/4E</t>
+  </si>
+  <si>
+    <t>569.218.0004</t>
+  </si>
+  <si>
+    <t>STOPKONTAKT 5POL.16A 380V</t>
+  </si>
+  <si>
+    <t>569.218.0071</t>
+  </si>
+  <si>
+    <t>KOPPELSTEKKER 5P 16A 380V</t>
+  </si>
+  <si>
+    <t>569.218.0038</t>
+  </si>
+  <si>
+    <t>STEKKER 5POL.16A 380V</t>
+  </si>
+  <si>
+    <t>530.DHFA80.052</t>
+  </si>
+  <si>
+    <t>STEKKER HI PRO M 2P+T 250V 16A IP44</t>
+  </si>
+  <si>
+    <t>530.DHFA81.034</t>
+  </si>
+  <si>
+    <t>STEKKER HI PRO F 2P+T 250V 16A IP44</t>
+  </si>
+  <si>
+    <t>543.520108</t>
+  </si>
+  <si>
+    <t>LED ATLANTIS T8 1,2M G13 IP65 2X18W 3600LM 4000K SCHEMERING</t>
+  </si>
+  <si>
+    <t>729.01530</t>
+  </si>
+  <si>
+    <t>TL 58W 1500 MM DIA.26MM 5200LM COOL WHITE</t>
+  </si>
+  <si>
+    <t>729.01510</t>
+  </si>
+  <si>
+    <t>TL 36W 1200 MM DIA.26MM 3350LM COOL WHITE</t>
+  </si>
+  <si>
+    <t>560.4R25R</t>
+  </si>
+  <si>
+    <t>BLOKBATTERIJ 6V STAR</t>
+  </si>
+  <si>
+    <t>PATROON C206 CAMPING GAZ 190GR</t>
+  </si>
+  <si>
+    <t>650.587808511</t>
+  </si>
+  <si>
+    <t>OLIE 2TAKT MOTOR HP 1L TANK MET SCHENKTUIT</t>
+  </si>
+  <si>
+    <t>748.44221</t>
+  </si>
+  <si>
+    <t>TANGIT REINIGER KS VOOR PE/PP/PB/PVDF</t>
+  </si>
+  <si>
+    <t>TANGIT PROFI 6HNPISTOOL1</t>
+  </si>
+  <si>
+    <t> 338.03004</t>
+  </si>
+  <si>
+    <t>GREASE 2 LITHEP 400GR KROON OIL</t>
+  </si>
+  <si>
+    <t>338.13402</t>
+  </si>
+  <si>
+    <t>Complex White Grease EP2 400GR KROON OIL</t>
+  </si>
+  <si>
+    <t>MARKEERSTIFT IND PERMANENT GEEL SL.100</t>
+  </si>
+  <si>
+    <t>326.C29</t>
+  </si>
+  <si>
+    <t>LADDER 2X9T-L4.00M SOLIDE</t>
+  </si>
+  <si>
+    <t>519.0.42.294</t>
+  </si>
+  <si>
+    <t>WATERPAS 20 CM STANLEY</t>
+  </si>
+  <si>
+    <t>WERA 851/4 Z Bits Phillips, PH 2 x 152 mm</t>
+  </si>
+  <si>
+    <t>SOUDOGAZ X2000PZ</t>
+  </si>
+  <si>
+    <t>WATERPAS KOKERMODEL 2 LIBELLEN 800MM 4TECX</t>
+  </si>
+  <si>
+    <t>MEETWIEL GWM32 BOSCH</t>
+  </si>
+  <si>
+    <t>REKFOLIE 50CM-300M-20µ TRANSPARANT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1376,12 +2195,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1390,6 +2203,19 @@
       <b/>
       <sz val="8"/>
       <color rgb="FF0000CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1402,7 +2228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1615,11 +2441,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1690,40 +2571,78 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2113,14 +3032,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4D3241-0164-4CB3-A084-5A3672299B4C}">
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:E572"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H395" sqref="H395"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="C572" sqref="C572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
@@ -2128,18 +3048,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -6336,7 +7256,7 @@
       <c r="B286" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C286" s="37" t="s">
+      <c r="C286" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D286" s="16" t="s">
@@ -6351,7 +7271,7 @@
       <c r="B287" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C287" s="37" t="s">
+      <c r="C287" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D287" s="16" t="s">
@@ -6366,7 +7286,7 @@
       <c r="B288" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="C288" s="38" t="s">
+      <c r="C288" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D288" s="16" t="s">
@@ -6381,7 +7301,7 @@
       <c r="B289" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C289" s="38" t="s">
+      <c r="C289" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D289" s="16" t="s">
@@ -6396,7 +7316,7 @@
       <c r="B290" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C290" s="37" t="s">
+      <c r="C290" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D290" s="16" t="s">
@@ -7998,44 +8918,1943 @@
       <c r="A397" s="8">
         <v>3732</v>
       </c>
-      <c r="B397" s="28" t="s">
+      <c r="B397" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="C397" s="29" t="s">
+      <c r="C397" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D397" s="30"/>
+      <c r="D397" s="28"/>
       <c r="E397" s="12"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="13">
         <v>30111</v>
       </c>
-      <c r="B398" s="31" t="s">
+      <c r="B398" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="C398" s="32" t="s">
+      <c r="C398" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D398" s="33"/>
+      <c r="D398" s="31"/>
       <c r="E398" s="17"/>
     </row>
     <row r="399" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="21">
         <v>200073</v>
       </c>
-      <c r="B399" s="34" t="s">
+      <c r="B399" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="C399" s="35" t="s">
+      <c r="C399" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D399" s="36"/>
+      <c r="D399" s="34"/>
       <c r="E399" s="25"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A400" s="26"/>
-      <c r="B400" s="27"/>
+      <c r="A400" s="38">
+        <v>5260306200</v>
+      </c>
+      <c r="B400" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="C400" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="B401" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="C401" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="42">
+        <v>5262626200</v>
+      </c>
+      <c r="B402" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="C402" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="B403" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="C403" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A404" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="B404" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="C404" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="B405" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="C405" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="B406" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="C406" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A407" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="B407" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="C407" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="B408" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="C408" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="B409" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="C409" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="B410" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="C410" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A411" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="B411" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="C411" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="B412" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="C412" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="42">
+        <v>9034034000503</v>
+      </c>
+      <c r="B413" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="C413" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="42">
+        <v>9034034000499</v>
+      </c>
+      <c r="B414" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="C414" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="B415" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="C415" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="B416" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="C416" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="B417" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="C417" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="B418" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="C418" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="B419" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="C419" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A420" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="B420" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="C420" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A421" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="B421" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="C421" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="B422" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="C422" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A423" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="B423" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="C423" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A424" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="B424" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="C424" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A425" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="B425" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="C425" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A426" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="B426" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="C426" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A427" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="B427" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="C427" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A428" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="B428" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="C428" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A429" s="42">
+        <v>526980308</v>
+      </c>
+      <c r="B429" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="C429" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A430" s="42">
+        <v>526980310</v>
+      </c>
+      <c r="B430" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="C430" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A431" s="42">
+        <v>526980313</v>
+      </c>
+      <c r="B431" s="39" t="s">
+        <v>474</v>
+      </c>
+      <c r="C431" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A432" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="B432" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="C432" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="42">
+        <v>526981506</v>
+      </c>
+      <c r="B433" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="C433" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A434" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="B434" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="C434" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="B435" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="C435" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A436" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="B436" s="39" t="s">
+        <v>483</v>
+      </c>
+      <c r="C436" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A437" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="B437" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="C437" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="B438" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="C438" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="B439" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="C439" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="B440" s="41" t="s">
+        <v>491</v>
+      </c>
+      <c r="C440" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A441" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="B441" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="C441" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="B442" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="C442" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A443" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="B443" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="C443" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="42">
+        <v>9034077000109</v>
+      </c>
+      <c r="B444" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="C444" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A445" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="B445" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="C445" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="B446" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="C446" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="B447" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C447" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A448" s="43" t="s">
+        <v>505</v>
+      </c>
+      <c r="B448" s="39" t="s">
+        <v>506</v>
+      </c>
+      <c r="C448" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="B449" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="C449" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" s="40" t="s">
+        <v>509</v>
+      </c>
+      <c r="B450" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="C450" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="B451" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="C451" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" s="42">
+        <v>522317</v>
+      </c>
+      <c r="B452" s="39" t="s">
+        <v>513</v>
+      </c>
+      <c r="C452" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" s="42">
+        <v>522208</v>
+      </c>
+      <c r="B453" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="C453" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" s="42">
+        <v>522390630032</v>
+      </c>
+      <c r="B454" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="C454" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A455" s="42">
+        <v>92949222229</v>
+      </c>
+      <c r="B455" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="C455" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="42">
+        <v>6622501</v>
+      </c>
+      <c r="B456" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="C456" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" s="42">
+        <v>6622503</v>
+      </c>
+      <c r="B457" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="C457" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A458" s="42">
+        <v>92331925</v>
+      </c>
+      <c r="B458" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="C458" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A459" s="42">
+        <v>9034014001464</v>
+      </c>
+      <c r="B459" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="C459" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" s="42">
+        <v>612134398</v>
+      </c>
+      <c r="B460" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="C460" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" s="42">
+        <v>61273521</v>
+      </c>
+      <c r="B461" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="C461" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" s="42">
+        <v>61260038</v>
+      </c>
+      <c r="B462" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="C462" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" s="42">
+        <v>51223110</v>
+      </c>
+      <c r="B463" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="C463" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" s="42">
+        <v>51223096</v>
+      </c>
+      <c r="B464" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="C464" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A465" s="42">
+        <v>51223092</v>
+      </c>
+      <c r="B465" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="C465" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" s="42">
+        <v>5246142890</v>
+      </c>
+      <c r="B466" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="C466" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" s="42">
+        <v>5246171210</v>
+      </c>
+      <c r="B467" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="C467" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" s="42">
+        <v>5246130530</v>
+      </c>
+      <c r="B468" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="C468" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="42">
+        <v>5246131180</v>
+      </c>
+      <c r="B469" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="C469" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="B470" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="C470" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A471" s="42">
+        <v>5241718762</v>
+      </c>
+      <c r="B471" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="C471" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A472" s="42">
+        <v>5241718819</v>
+      </c>
+      <c r="B472" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="C472" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A473" s="42">
+        <v>5241718835</v>
+      </c>
+      <c r="B473" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="C473" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A474" s="42">
+        <v>5246176360</v>
+      </c>
+      <c r="B474" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="C474" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A475" s="42">
+        <v>5246178490</v>
+      </c>
+      <c r="B475" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="C475" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A476" s="45">
+        <v>4010888040010</v>
+      </c>
+      <c r="B476" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="C476" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A477" s="42">
+        <v>5246153230</v>
+      </c>
+      <c r="B477" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="C477" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A478" s="42">
+        <v>5246157300</v>
+      </c>
+      <c r="B478" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="C478" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="B479" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="C479" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="B480" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="C480" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="B481" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="C481" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="B482" s="44" t="s">
+        <v>548</v>
+      </c>
+      <c r="C482" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="B483" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="C483" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="B484" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="C484" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="B485" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="C485" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="B486" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="C486" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="B487" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="C487" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="B488" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="C488" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A489" s="42">
+        <v>9034001000263</v>
+      </c>
+      <c r="B489" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="C489" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" s="42">
+        <v>51223820</v>
+      </c>
+      <c r="B490" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="C490" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A491" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="B491" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="C491" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A492" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="B492" s="46" t="s">
+        <v>566</v>
+      </c>
+      <c r="C492" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="B493" s="46" t="s">
+        <v>568</v>
+      </c>
+      <c r="C493" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="B494" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="C494" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="B495" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="C495" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="B496" s="46" t="s">
+        <v>574</v>
+      </c>
+      <c r="C496" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="40" t="s">
+        <v>575</v>
+      </c>
+      <c r="B497" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="C497" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="B498" s="46" t="s">
+        <v>578</v>
+      </c>
+      <c r="C498" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="B499" s="46" t="s">
+        <v>580</v>
+      </c>
+      <c r="C499" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="B500" s="44" t="s">
+        <v>582</v>
+      </c>
+      <c r="C500" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A501" s="42">
+        <v>6111005614</v>
+      </c>
+      <c r="B501" s="44" t="s">
+        <v>583</v>
+      </c>
+      <c r="C501" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A502" s="42">
+        <v>61122546</v>
+      </c>
+      <c r="B502" s="44" t="s">
+        <v>584</v>
+      </c>
+      <c r="C502" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A503" s="42">
+        <v>89010510010</v>
+      </c>
+      <c r="B503" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="C503" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="B504" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="C504" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" s="42">
+        <v>9034028000461</v>
+      </c>
+      <c r="B505" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="C505" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" s="42">
+        <v>503028520</v>
+      </c>
+      <c r="B506" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="C506" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A507" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="B507" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="C507" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" s="42">
+        <v>521847500</v>
+      </c>
+      <c r="B508" s="44" t="s">
+        <v>592</v>
+      </c>
+      <c r="C508" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" s="42">
+        <v>521674170</v>
+      </c>
+      <c r="B509" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="C509" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A510" s="42">
+        <v>521703180</v>
+      </c>
+      <c r="B510" s="44" t="s">
+        <v>594</v>
+      </c>
+      <c r="C510" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="B511" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="C511" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A512" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="B512" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="C512" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" s="42">
+        <v>718001</v>
+      </c>
+      <c r="B513" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="C513" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" s="40">
+        <v>101.92</v>
+      </c>
+      <c r="B514" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="C514" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A515" s="42">
+        <v>349365688</v>
+      </c>
+      <c r="B515" s="44" t="s">
+        <v>601</v>
+      </c>
+      <c r="C515" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="B516" s="46" t="s">
+        <v>603</v>
+      </c>
+      <c r="C516" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" s="42">
+        <v>5032160040</v>
+      </c>
+      <c r="B517" s="44" t="s">
+        <v>604</v>
+      </c>
+      <c r="C517" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" s="42">
+        <v>503022004</v>
+      </c>
+      <c r="B518" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="C518" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" s="42">
+        <v>503022001</v>
+      </c>
+      <c r="B519" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="C519" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" s="42">
+        <v>524073656</v>
+      </c>
+      <c r="B520" s="44" t="s">
+        <v>607</v>
+      </c>
+      <c r="C520" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="B521" s="46" t="s">
+        <v>609</v>
+      </c>
+      <c r="C521" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" s="42">
+        <v>503110201</v>
+      </c>
+      <c r="B522" s="44" t="s">
+        <v>610</v>
+      </c>
+      <c r="C522" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A523" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="B523" s="46" t="s">
+        <v>612</v>
+      </c>
+      <c r="C523" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="B524" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="C524" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="B525" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="C525" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="B526" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="C526" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" s="42">
+        <v>9007282505</v>
+      </c>
+      <c r="B527" s="46" t="s">
+        <v>619</v>
+      </c>
+      <c r="C527" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="B528" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="C528" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" s="42">
+        <v>503131370</v>
+      </c>
+      <c r="B529" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="C529" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="B530" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="C530" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="B531" s="44" t="s">
+        <v>626</v>
+      </c>
+      <c r="C531" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" s="42">
+        <v>8581493</v>
+      </c>
+      <c r="B532" s="44" t="s">
+        <v>627</v>
+      </c>
+      <c r="C532" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" s="42">
+        <v>8581401</v>
+      </c>
+      <c r="B533" s="44" t="s">
+        <v>628</v>
+      </c>
+      <c r="C533" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" s="42">
+        <v>8581421</v>
+      </c>
+      <c r="B534" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="C534" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A535" s="42">
+        <v>8582511</v>
+      </c>
+      <c r="B535" s="44" t="s">
+        <v>630</v>
+      </c>
+      <c r="C535" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" s="42">
+        <v>8581901</v>
+      </c>
+      <c r="B536" s="44" t="s">
+        <v>631</v>
+      </c>
+      <c r="C536" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" s="42">
+        <v>9007483510</v>
+      </c>
+      <c r="B537" s="44" t="s">
+        <v>632</v>
+      </c>
+      <c r="C537" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="B538" s="46" t="s">
+        <v>634</v>
+      </c>
+      <c r="C538" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="B539" s="44" t="s">
+        <v>636</v>
+      </c>
+      <c r="C539" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A540" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="B540" s="46" t="s">
+        <v>638</v>
+      </c>
+      <c r="C540" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" s="42">
+        <v>641500870020302</v>
+      </c>
+      <c r="B541" s="44" t="s">
+        <v>639</v>
+      </c>
+      <c r="C541" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" s="42">
+        <v>67023222</v>
+      </c>
+      <c r="B542" s="44" t="s">
+        <v>640</v>
+      </c>
+      <c r="C542" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" s="40" t="s">
+        <v>641</v>
+      </c>
+      <c r="B543" s="44" t="s">
+        <v>642</v>
+      </c>
+      <c r="C543" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" s="40" t="s">
+        <v>643</v>
+      </c>
+      <c r="B544" s="44" t="s">
+        <v>644</v>
+      </c>
+      <c r="C544" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A545" s="40" t="s">
+        <v>645</v>
+      </c>
+      <c r="B545" s="44" t="s">
+        <v>646</v>
+      </c>
+      <c r="C545" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A546" s="42">
+        <v>3455111215</v>
+      </c>
+      <c r="B546" s="44" t="s">
+        <v>647</v>
+      </c>
+      <c r="C546" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" s="42">
+        <v>58213020</v>
+      </c>
+      <c r="B547" s="44" t="s">
+        <v>648</v>
+      </c>
+      <c r="C547" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" s="40" t="s">
+        <v>649</v>
+      </c>
+      <c r="B548" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="C548" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="B549" s="46" t="s">
+        <v>652</v>
+      </c>
+      <c r="C549" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="B550" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="C550" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="B551" s="46" t="s">
+        <v>656</v>
+      </c>
+      <c r="C551" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="B552" s="46" t="s">
+        <v>658</v>
+      </c>
+      <c r="C552" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="B553" s="44" t="s">
+        <v>660</v>
+      </c>
+      <c r="C553" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="B554" s="44" t="s">
+        <v>662</v>
+      </c>
+      <c r="C554" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A555" s="40" t="s">
+        <v>663</v>
+      </c>
+      <c r="B555" s="46" t="s">
+        <v>664</v>
+      </c>
+      <c r="C555" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" s="40" t="s">
+        <v>665</v>
+      </c>
+      <c r="B556" s="46" t="s">
+        <v>666</v>
+      </c>
+      <c r="C556" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" s="40" t="s">
+        <v>667</v>
+      </c>
+      <c r="B557" s="46" t="s">
+        <v>668</v>
+      </c>
+      <c r="C557" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" s="40" t="s">
+        <v>669</v>
+      </c>
+      <c r="B558" s="46" t="s">
+        <v>670</v>
+      </c>
+      <c r="C558" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" s="42">
+        <v>575203530</v>
+      </c>
+      <c r="B559" s="39" t="s">
+        <v>671</v>
+      </c>
+      <c r="C559" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" s="40" t="s">
+        <v>672</v>
+      </c>
+      <c r="B560" s="41" t="s">
+        <v>673</v>
+      </c>
+      <c r="C560" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" s="40" t="s">
+        <v>674</v>
+      </c>
+      <c r="B561" s="41" t="s">
+        <v>675</v>
+      </c>
+      <c r="C561" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" s="42">
+        <v>5112252643</v>
+      </c>
+      <c r="B562" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="C562" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="B563" s="39" t="s">
+        <v>678</v>
+      </c>
+      <c r="C563" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="B564" s="41" t="s">
+        <v>680</v>
+      </c>
+      <c r="C564" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" s="42">
+        <v>70231240220</v>
+      </c>
+      <c r="B565" s="39" t="s">
+        <v>681</v>
+      </c>
+      <c r="C565" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="B566" s="41" t="s">
+        <v>683</v>
+      </c>
+      <c r="C566" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" s="42" t="s">
+        <v>684</v>
+      </c>
+      <c r="B567" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="C567" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" s="48">
+        <v>61259786</v>
+      </c>
+      <c r="B568" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="C568" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569" s="48">
+        <v>575202927</v>
+      </c>
+      <c r="B569" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="C569" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A570" s="48">
+        <v>9034010000184</v>
+      </c>
+      <c r="B570" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="C570" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571" s="48">
+        <v>7910601074000</v>
+      </c>
+      <c r="B571" s="49" t="s">
+        <v>689</v>
+      </c>
+      <c r="C571" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572" s="48">
+        <v>99922000046</v>
+      </c>
+      <c r="B572" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="C572" s="50" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8049,7 +10868,75 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B412" r:id="rId1" display="https://www.dekinder.be/nl/favorites/add/838964" xr:uid="{2AACFC95-B6AF-4AF5-A3D9-9C136E58BDCE}"/>
+    <hyperlink ref="B516" r:id="rId2" display="https://www.dekinder.be/nl/favorites/add/592037" xr:uid="{5E1B20B0-F662-4C5F-AFF4-C58BE1D2E504}"/>
+    <hyperlink ref="B432" r:id="rId3" display="https://www.dekinder.be/nl/favorites/add/654766" xr:uid="{7FBC5455-A270-42BE-AC20-0BBC6FD1241D}"/>
+    <hyperlink ref="B561" r:id="rId4" display="https://www.dekinder.be/nl/favorites/add/35408075" xr:uid="{A17F21BF-A7F2-46E1-8D14-AAFE1D271018}"/>
+    <hyperlink ref="B566" r:id="rId5" display="https://www.dekinder.be/nl/favorites/add/521568" xr:uid="{BC9318B1-4974-4120-9B09-023B94851E50}"/>
+    <hyperlink ref="B435" r:id="rId6" display="https://www.dekinder.be/nl/favorites/add/1011748" xr:uid="{0551EFD8-C8F2-4422-909B-2B29E4DE0239}"/>
+    <hyperlink ref="B521" r:id="rId7" display="https://www.dekinder.be/nl/favorites/add/21277923" xr:uid="{AFF28B41-7131-43FB-A05D-95CE6D1EA468}"/>
+    <hyperlink ref="B524" r:id="rId8" display="https://www.dekinder.be/nl/favorites/add/16210765" xr:uid="{77F44FCB-8D90-4EA3-A3DC-55F518D4EEE9}"/>
+    <hyperlink ref="B440" r:id="rId9" display="https://www.dekinder.be/nl/favorites/add/67164038" xr:uid="{09118288-E716-439B-9C7C-487E0ED4A2AD}"/>
+    <hyperlink ref="B523" r:id="rId10" display="https://www.dekinder.be/nl/favorites/add/1139283" xr:uid="{161D5626-0D08-46AC-891B-4A84A3262E9F}"/>
+    <hyperlink ref="B527" r:id="rId11" display="https://www.dekinder.be/nl/favorites/add/1010777" xr:uid="{F91DF66E-2703-49CD-92DE-DA8CC1FA777F}"/>
+    <hyperlink ref="B538" r:id="rId12" display="https://www.dekinder.be/nl/favorites/add/778606" xr:uid="{4A28C959-D21F-4385-BD7B-B798D241C8DF}"/>
+    <hyperlink ref="B540" r:id="rId13" display="https://www.dekinder.be/nl/favorites/add/736083" xr:uid="{3BD6CB6C-FEFF-4A58-8C47-3F6C7B30B6EB}"/>
+    <hyperlink ref="B449" r:id="rId14" display="https://www.dekinder.be/nl/favorites/add/12857364" xr:uid="{2A8B07E5-2EBA-4978-A303-C1D6A545A131}"/>
+    <hyperlink ref="B528" r:id="rId15" display="https://www.dekinder.be/nl/favorites/add/1010346" xr:uid="{514342E2-C021-453B-A3F8-918BFA17A7B8}"/>
+    <hyperlink ref="B548" r:id="rId16" display="https://www.dekinder.be/nl/favorites/add/640922" xr:uid="{5204C9F5-B03D-4509-860D-ABAC5502621F}"/>
+    <hyperlink ref="B549" r:id="rId17" display="https://www.dekinder.be/nl/favorites/add/607443" xr:uid="{22E063A0-5C2F-49CB-8065-8D36184D3AAD}"/>
+    <hyperlink ref="B550" r:id="rId18" display="https://www.dekinder.be/nl/favorites/add/721384" xr:uid="{9A4F7B32-AECE-493E-8EBC-B81C2B422304}"/>
+    <hyperlink ref="B551" r:id="rId19" display="https://www.dekinder.be/nl/favorites/add/721470" xr:uid="{36080B60-92C6-46EC-B2B4-C91E9CDC472A}"/>
+    <hyperlink ref="B555" r:id="rId20" display="https://www.dekinder.be/nl/favorites/add/291008297" xr:uid="{7D6031F3-7856-4474-B655-2881DC1002AD}"/>
+    <hyperlink ref="B556" r:id="rId21" display="https://www.dekinder.be/nl/favorites/add/87315654" xr:uid="{4E29FA5D-8B3D-4BE6-8BB7-6D07DC8C2606}"/>
+    <hyperlink ref="B557" r:id="rId22" display="https://www.dekinder.be/nl/favorites/add/87315640" xr:uid="{2640EC1C-D874-4654-84E5-531E6E619356}"/>
+    <hyperlink ref="B564" r:id="rId23" display="https://www.dekinder.be/nl/favorites/add/530650" xr:uid="{6B4CE352-80C3-4367-9D65-E0B78ECCD488}"/>
+    <hyperlink ref="B560" r:id="rId24" display="https://www.dekinder.be/nl/favorites/add/40922026" xr:uid="{74C3587D-3474-4F0E-83BE-4A0B7E682831}"/>
+    <hyperlink ref="B525" r:id="rId25" display="https://www.dekinder.be/nl/favorites/add/592198" xr:uid="{3B4247B0-8393-4F3A-B2EE-047B8A61645E}"/>
+    <hyperlink ref="B558" r:id="rId26" display="https://www.dekinder.be/nl/favorites/add/711912" xr:uid="{BC224C11-B556-4CBA-96A0-AB9039A9902B}"/>
+    <hyperlink ref="B552" r:id="rId27" display="https://www.dekinder.be/nl/favorites/add/721434" xr:uid="{D05FA14E-CB1D-42A4-B077-9895839ABA6B}"/>
+    <hyperlink ref="B420" r:id="rId28" display="https://www.dekinder.be/nl/favorites/add/1007879" xr:uid="{69C690FE-4B35-4583-8778-390F9AB77E39}"/>
+    <hyperlink ref="B421" r:id="rId29" display="https://www.dekinder.be/nl/favorites/add/1007859" xr:uid="{9424F6B2-81DB-4432-941D-DBB136D1D044}"/>
+    <hyperlink ref="B423" r:id="rId30" display="https://www.dekinder.be/nl/favorites/add/96677730" xr:uid="{3857E745-5046-4BD5-BC03-B8AF39CD5469}"/>
+    <hyperlink ref="B424" r:id="rId31" display="https://www.dekinder.be/nl/favorites/add/12215641" xr:uid="{6F41B2DA-5591-4942-BA8F-34DCACC9786D}"/>
+    <hyperlink ref="B422" r:id="rId32" display="https://www.dekinder.be/nl/favorites/add/616207" xr:uid="{4E73536A-0273-4BBB-BB61-7CC8EB9D622E}"/>
+    <hyperlink ref="B425" r:id="rId33" display="https://www.dekinder.be/nl/favorites/add/25814649" xr:uid="{B82E26E7-29DE-4CA4-A7D1-F95F27693DD9}"/>
+    <hyperlink ref="B401" r:id="rId34" display="https://www.dekinder.be/nl/favorites/add/653895" xr:uid="{3BDE7D9E-EB2C-429A-AF0B-B7F9665C6B2A}"/>
+    <hyperlink ref="B405" r:id="rId35" display="https://www.dekinder.be/nl/favorites/add/1317102" xr:uid="{E70A0FC0-1E6D-4D3D-8048-16984DBB5EFF}"/>
+    <hyperlink ref="B408" r:id="rId36" display="https://www.dekinder.be/nl/favorites/add/8149405" xr:uid="{C90E97B5-3361-4B1E-998E-04127FFB57B3}"/>
+    <hyperlink ref="B416" r:id="rId37" display="https://www.dekinder.be/nl/favorites/add/8141400" xr:uid="{462C4376-2B4F-43E7-AD59-3834A041DB34}"/>
+    <hyperlink ref="B407" r:id="rId38" display="https://www.dekinder.be/nl/favorites/add/654503" xr:uid="{50790065-10E9-4D0D-AF06-F796CA449D64}"/>
+    <hyperlink ref="B403" r:id="rId39" display="https://www.dekinder.be/nl/favorites/add/1346818" xr:uid="{B105B3ED-32C8-4796-BE69-90B0482F0EF8}"/>
+    <hyperlink ref="B410" r:id="rId40" display="https://www.dekinder.be/nl/favorites/add/654594" xr:uid="{98187266-1BB9-4652-83D1-5D6462513F03}"/>
+    <hyperlink ref="B419" r:id="rId41" display="https://www.dekinder.be/nl/favorites/add/8153550" xr:uid="{7C5D4641-4BF1-487F-BB5A-08A94A8D1A6F}"/>
+    <hyperlink ref="B406" r:id="rId42" display="https://www.dekinder.be/nl/favorites/add/654574" xr:uid="{40672482-C8D4-43E2-AEF3-DE3138EADE29}"/>
+    <hyperlink ref="B411" r:id="rId43" display="https://www.dekinder.be/nl/favorites/add/8148330" xr:uid="{4107EA78-8B98-41F2-A67C-0EAD2F6EA5B4}"/>
+    <hyperlink ref="B409" r:id="rId44" display="https://www.dekinder.be/nl/favorites/add/654604" xr:uid="{CC1ABD75-7E04-4D90-8324-AF722C4AF621}"/>
+    <hyperlink ref="B530" r:id="rId45" display="https://www.dekinder.be/nl/favorites/add/876970" xr:uid="{5AA721A7-FFBC-4AF6-8BDC-9ADD76524E34}"/>
+    <hyperlink ref="B491" r:id="rId46" display="https://www.dekinder.be/nl/favorites/add/1190209" xr:uid="{9CD7B333-F450-420C-ADA0-C55E1F8C2C5A}"/>
+    <hyperlink ref="B492" r:id="rId47" display="https://www.dekinder.be/nl/favorites/add/1308180" xr:uid="{AE6C8E75-BAEA-4378-83BC-A97795811D35}"/>
+    <hyperlink ref="B493" r:id="rId48" display="https://www.dekinder.be/nl/favorites/add/11904988" xr:uid="{D6B2B6E6-3317-43C2-9610-2CA99B75BE55}"/>
+    <hyperlink ref="B494" r:id="rId49" display="https://www.dekinder.be/nl/favorites/add/923698" xr:uid="{8A4F1E10-ABF2-48B0-8CD1-CE556804289A}"/>
+    <hyperlink ref="B495" r:id="rId50" display="https://www.dekinder.be/nl/favorites/add/923678" xr:uid="{D6128DEA-7F14-43E0-80DF-A9892805D326}"/>
+    <hyperlink ref="B496" r:id="rId51" display="https://www.dekinder.be/nl/favorites/add/387403390" xr:uid="{49124AAF-6CC4-4CB6-976A-B942244E8756}"/>
+    <hyperlink ref="B497" r:id="rId52" display="https://www.dekinder.be/nl/favorites/add/1039026" xr:uid="{B8008209-E8A7-4D17-A520-908C0F7F94A1}"/>
+    <hyperlink ref="B498" r:id="rId53" display="https://www.dekinder.be/nl/favorites/add/1039016" xr:uid="{CCBD3513-960B-440C-897C-3A6BE7BB1D98}"/>
+    <hyperlink ref="B499" r:id="rId54" display="https://www.dekinder.be/nl/favorites/add/839654" xr:uid="{56252377-945D-43FC-993F-75E6CB0D265D}"/>
+    <hyperlink ref="B417" r:id="rId55" display="https://www.dekinder.be/nl/favorites/add/897502" xr:uid="{963EC62B-B6A9-46BC-A512-F2CFA0CA99AA}"/>
+    <hyperlink ref="B418" r:id="rId56" display="https://www.dekinder.be/nl/favorites/add/897512" xr:uid="{8787AAE4-510A-47A4-BC5B-AEE4D92D58F4}"/>
+    <hyperlink ref="B438" r:id="rId57" display="https://www.dekinder.be/nl/favorites/add/715354" xr:uid="{4807209F-D946-471E-B728-A767F77DEDD7}"/>
+    <hyperlink ref="B439" r:id="rId58" display="https://www.dekinder.be/nl/favorites/add/631054" xr:uid="{299255CE-64C5-4279-8D33-658373AF4420}"/>
+    <hyperlink ref="B526" r:id="rId59" display="https://www.dekinder.be/nl/favorites/add/1010850" xr:uid="{C94050F2-ACCC-4AFD-8FF7-F96CA3FFCD6F}"/>
+    <hyperlink ref="B445" r:id="rId60" display="https://www.dekinder.be/nl/favorites/add/80855076" xr:uid="{7274A325-4E22-4D37-8E9A-68EAAAD24695}"/>
+    <hyperlink ref="B447" r:id="rId61" display="https://www.dekinder.be/nl/favorites/add/632436" xr:uid="{F7D3D6D7-DC4B-4C8C-A4E1-1E0BE59777DC}"/>
+    <hyperlink ref="B426" r:id="rId62" xr:uid="{545E2DCA-52D9-4EBB-B3BE-AB01367EEA63}"/>
+    <hyperlink ref="B453" r:id="rId63" display="https://www.dekinder.be/nl/favorites/add/635259" xr:uid="{927A6F03-FE88-4952-B2A9-BB91253B8762}"/>
+    <hyperlink ref="B454" r:id="rId64" display="https://www.dekinder.be/nl/favorites/add/636145" xr:uid="{950AA7A4-F539-4EC2-B3A6-8F91CE0113A1}"/>
+    <hyperlink ref="B451" r:id="rId65" display="https://www.dekinder.be/nl/favorites/add/629878" xr:uid="{780251B9-8577-40B5-8F25-5915CC4145DF}"/>
+    <hyperlink ref="B567" r:id="rId66" xr:uid="{216FC0AA-3280-4A05-83D2-8B6CB164C849}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId67"/>
 </worksheet>
 </file>